--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA5824-0632-4792-96D9-C2FD3B5CECCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE930E9-A303-49A2-A71C-E486F45EAE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="975" windowWidth="22200" windowHeight="14340" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="198">
   <si>
     <t>Price</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>GOOGL</t>
+  </si>
+  <si>
+    <t>Total GPU Volume</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,12 +924,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1891,10 +1888,10 @@
   <dimension ref="A1:EU143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB144" sqref="AB144"/>
+      <selection pane="bottomRight" activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2110,7 +2107,7 @@
       <c r="W5" s="31"/>
       <c r="X5" s="31"/>
       <c r="Z5" s="26">
-        <f>SUM(K5:N5)</f>
+        <f t="shared" ref="Z5:Z13" si="1">SUM(K5:N5)</f>
         <v>111</v>
       </c>
       <c r="AA5" s="31"/>
@@ -2169,7 +2166,7 @@
         <v>1700</v>
       </c>
       <c r="Z6" s="26">
-        <f>SUM(K6:N6)</f>
+        <f t="shared" si="1"/>
         <v>567</v>
       </c>
     </row>
@@ -2219,7 +2216,7 @@
         <v>1900</v>
       </c>
       <c r="Z7" s="26">
-        <f>SUM(K7:N7)</f>
+        <f t="shared" si="1"/>
         <v>509</v>
       </c>
     </row>
@@ -2269,7 +2266,7 @@
         <v>11400</v>
       </c>
       <c r="Z8" s="26">
-        <f>SUM(K8:N8)</f>
+        <f t="shared" si="1"/>
         <v>3763</v>
       </c>
     </row>
@@ -2280,7 +2277,7 @@
       </c>
       <c r="T9" s="31"/>
       <c r="Z9" s="26">
-        <f>SUM(K9:N9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2292,7 @@
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
       <c r="Z10" s="26">
-        <f>SUM(K10:N10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2357,7 @@
         <v>115200</v>
       </c>
       <c r="Z11" s="26">
-        <f>SUM(K11:N11)</f>
+        <f t="shared" si="1"/>
         <v>175038</v>
       </c>
       <c r="AF11" s="32"/>
@@ -2370,35 +2367,35 @@
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:K12" si="1">SUM(D5:D11)</f>
+        <f t="shared" ref="D12:K12" si="2">SUM(D5:D11)</f>
         <v>13507</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18120</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22103</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26044</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30040</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35082</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39331</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44062</v>
       </c>
       <c r="L12" s="2">
@@ -2416,15 +2413,15 @@
         <v>65340.000000000015</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:R12" si="2">O12*1.1</f>
+        <f t="shared" ref="P12:R12" si="3">O12*1.1</f>
         <v>71874.000000000015</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79061.400000000023</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86967.540000000037</v>
       </c>
       <c r="T12" s="2">
@@ -2446,7 +2443,7 @@
         <v>130497</v>
       </c>
       <c r="Z12" s="2">
-        <f>SUM(K12:N12)</f>
+        <f t="shared" si="1"/>
         <v>204462</v>
       </c>
       <c r="AA12" s="2">
@@ -2502,7 +2499,7 @@
         <v>32639</v>
       </c>
       <c r="Z13" s="26">
-        <f>SUM(K13:N13)</f>
+        <f t="shared" si="1"/>
         <v>59714</v>
       </c>
       <c r="AA13" s="26">
@@ -2535,79 +2532,79 @@
         <v>20406</v>
       </c>
       <c r="H14" s="26">
-        <f t="shared" ref="H14:N14" si="3">H12-H13</f>
+        <f t="shared" ref="H14:N14" si="4">H12-H13</f>
         <v>30040</v>
       </c>
       <c r="I14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35082</v>
       </c>
       <c r="J14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39331</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26668</v>
       </c>
       <c r="L14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33840</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39690</v>
       </c>
       <c r="N14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44550.000000000007</v>
       </c>
       <c r="T14" s="26">
-        <f t="shared" ref="T14:AD14" si="4">T12-T13</f>
+        <f t="shared" ref="T14:AD14" si="5">T12-T13</f>
         <v>11720</v>
       </c>
       <c r="U14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10920</v>
       </c>
       <c r="V14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16680</v>
       </c>
       <c r="W14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15356</v>
       </c>
       <c r="X14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44301</v>
       </c>
       <c r="Y14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97858</v>
       </c>
       <c r="Z14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144748</v>
       </c>
       <c r="AA14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>234517.20299999998</v>
       </c>
       <c r="AB14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>331863.08875200001</v>
       </c>
       <c r="AC14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>437421.32591039996</v>
       </c>
       <c r="AD14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>564091.21050048003</v>
       </c>
       <c r="AE14" s="26">
-        <f t="shared" ref="AE14" si="5">AE12-AE13</f>
+        <f t="shared" ref="AE14" si="6">AE12-AE13</f>
         <v>716095.07200857601</v>
       </c>
     </row>
@@ -2626,11 +2623,11 @@
         <v>4547.46</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" ref="M15:N15" si="6">L15*1.02</f>
+        <f t="shared" ref="M15:N15" si="7">L15*1.02</f>
         <v>4638.4092000000001</v>
       </c>
       <c r="N15" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4731.1773840000005</v>
       </c>
       <c r="V15" s="30"/>
@@ -2652,19 +2649,19 @@
         <v>22024.437298320001</v>
       </c>
       <c r="AB15" s="26">
-        <f t="shared" ref="AB15:AE15" si="7">AA15*1.23</f>
+        <f t="shared" ref="AB15:AE15" si="8">AA15*1.23</f>
         <v>27090.057876933603</v>
       </c>
       <c r="AC15" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33320.771188628329</v>
       </c>
       <c r="AD15" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40984.548562012846</v>
       </c>
       <c r="AE15" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50410.994731275801</v>
       </c>
     </row>
@@ -2683,11 +2680,11 @@
         <v>1145.1000000000001</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" ref="M16:N16" si="8">L16*1.02</f>
+        <f t="shared" ref="M16:N16" si="9">L16*1.02</f>
         <v>1168.0020000000002</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1191.3620400000002</v>
       </c>
       <c r="W16" s="26">
@@ -2708,19 +2705,19 @@
         <v>5454.5568480000011</v>
       </c>
       <c r="AB16" s="26">
-        <f t="shared" ref="AB16:AE16" si="9">AA16*1.2</f>
+        <f t="shared" ref="AB16:AE16" si="10">AA16*1.2</f>
         <v>6545.4682176000015</v>
       </c>
       <c r="AC16" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7854.5618611200016</v>
       </c>
       <c r="AD16" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9425.4742333440008</v>
       </c>
       <c r="AE16" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11310.569080012801</v>
       </c>
     </row>
@@ -2729,83 +2726,83 @@
         <v>76</v>
       </c>
       <c r="G17" s="26">
-        <f t="shared" ref="G17:N17" si="10">SUM(G15:G16)</f>
+        <f t="shared" ref="G17:N17" si="11">SUM(G15:G16)</f>
         <v>3497</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5030</v>
       </c>
       <c r="L17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5692.56</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5806.4112000000005</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5922.5394240000005</v>
       </c>
       <c r="T17" s="26">
-        <f t="shared" ref="T17:AD17" si="11">SUM(T15:T16)</f>
+        <f t="shared" ref="T17:AD17" si="12">SUM(T15:T16)</f>
         <v>0</v>
       </c>
       <c r="U17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9779</v>
       </c>
       <c r="X17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11329</v>
       </c>
       <c r="Y17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16405</v>
       </c>
       <c r="Z17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22451.510624000002</v>
       </c>
       <c r="AA17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27478.994146320001</v>
       </c>
       <c r="AB17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33635.526094533605</v>
       </c>
       <c r="AC17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41175.333049748333</v>
       </c>
       <c r="AD17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50410.022795356846</v>
       </c>
       <c r="AE17" s="26">
-        <f t="shared" ref="AE17" si="12">SUM(AE15:AE16)</f>
+        <f t="shared" ref="AE17" si="13">SUM(AE15:AE16)</f>
         <v>61721.563811288601</v>
       </c>
     </row>
@@ -2814,83 +2811,83 @@
         <v>11</v>
       </c>
       <c r="G18" s="26">
-        <f t="shared" ref="G18:N18" si="13">G14-G17</f>
+        <f t="shared" ref="G18:N18" si="14">G14-G17</f>
         <v>16909</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30040</v>
       </c>
       <c r="I18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>35082</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>39331</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21638</v>
       </c>
       <c r="L18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28147.439999999999</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33883.588799999998</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>38627.460576000005</v>
       </c>
       <c r="T18" s="26">
-        <f t="shared" ref="T18:AD18" si="14">T14-T17</f>
+        <f t="shared" ref="T18:AD18" si="15">T14-T17</f>
         <v>11720</v>
       </c>
       <c r="U18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10920</v>
       </c>
       <c r="V18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16680</v>
       </c>
       <c r="W18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5577</v>
       </c>
       <c r="X18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32972</v>
       </c>
       <c r="Y18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>81453</v>
       </c>
       <c r="Z18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>122296.489376</v>
       </c>
       <c r="AA18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>207038.20885367997</v>
       </c>
       <c r="AB18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>298227.56265746639</v>
       </c>
       <c r="AC18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>396245.99286065163</v>
       </c>
       <c r="AD18" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>513681.18770512316</v>
       </c>
       <c r="AE18" s="26">
-        <f t="shared" ref="AE18" si="15">AE14-AE17</f>
+        <f t="shared" ref="AE18" si="16">AE14-AE17</f>
         <v>654373.50819728745</v>
       </c>
     </row>
@@ -2994,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="AB20" s="26">
-        <f t="shared" ref="AB20:AE20" si="16">AA20*1.02</f>
+        <f t="shared" ref="AB20:AE20" si="17">AA20*1.02</f>
         <v>0</v>
       </c>
       <c r="AC20" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD20" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE20" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3019,31 +3016,31 @@
         <v>17279</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" ref="H21:N21" si="17">H18+SUM(H19:H20)</f>
+        <f t="shared" ref="H21:N21" si="18">H18+SUM(H19:H20)</f>
         <v>30040</v>
       </c>
       <c r="I21" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35082</v>
       </c>
       <c r="J21" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39331</v>
       </c>
       <c r="K21" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21910</v>
       </c>
       <c r="L21" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28373.574999999997</v>
       </c>
       <c r="M21" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34228.183475624995</v>
       </c>
       <c r="N21" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39110.679394701285</v>
       </c>
       <c r="T21" s="26">
@@ -3055,19 +3052,19 @@
         <v>10920</v>
       </c>
       <c r="V21" s="26">
-        <f t="shared" ref="V21:Y21" si="18">V18+SUM(V19:V20)</f>
+        <f t="shared" ref="V21:Y21" si="19">V18+SUM(V19:V20)</f>
         <v>16680</v>
       </c>
       <c r="W21" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5534</v>
       </c>
       <c r="X21" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33818</v>
       </c>
       <c r="Y21" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>84026</v>
       </c>
       <c r="Z21" s="26">
@@ -3075,23 +3072,23 @@
         <v>123622.43787032628</v>
       </c>
       <c r="AA21" s="26">
-        <f t="shared" ref="AA21:AD21" si="19">AA18+SUM(AA19:AA20)</f>
+        <f t="shared" ref="AA21:AD21" si="20">AA18+SUM(AA19:AA20)</f>
         <v>209604.67713467925</v>
       </c>
       <c r="AB21" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>300845.36030408565</v>
       </c>
       <c r="AC21" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>398916.14646020328</v>
       </c>
       <c r="AD21" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>516404.74437666585</v>
       </c>
       <c r="AE21" s="26">
-        <f t="shared" ref="AE21" si="20">AE18+SUM(AE19:AE20)</f>
+        <f t="shared" ref="AE21" si="21">AE18+SUM(AE19:AE20)</f>
         <v>657151.53600226098</v>
       </c>
     </row>
@@ -3135,19 +3132,19 @@
         <v>39824.888655589057</v>
       </c>
       <c r="AB22" s="26">
-        <f t="shared" ref="AB22:AD22" si="21">AB21*0.19</f>
+        <f t="shared" ref="AB22:AD22" si="22">AB21*0.19</f>
         <v>57160.618457776276</v>
       </c>
       <c r="AC22" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>75794.06782743863</v>
       </c>
       <c r="AD22" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98116.901431566512</v>
       </c>
       <c r="AE22" s="26">
-        <f t="shared" ref="AE22" si="22">AE21*0.19</f>
+        <f t="shared" ref="AE22" si="23">AE21*0.19</f>
         <v>124858.79184042959</v>
       </c>
     </row>
@@ -3160,31 +3157,31 @@
         <v>14881</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" ref="H23:N23" si="23">H21-H22</f>
+        <f t="shared" ref="H23:N23" si="24">H21-H22</f>
         <v>30040</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35082</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>39331</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18775</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23691.935124999996</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>27724.828615256247</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>31679.650309708042</v>
       </c>
       <c r="T23" s="2">
@@ -3196,19 +3193,19 @@
         <v>10920</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" ref="V23:Y23" si="24">V21-V22</f>
+        <f t="shared" ref="V23:Y23" si="25">V21-V22</f>
         <v>16680</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5721</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>29760</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>72880</v>
       </c>
       <c r="Z23" s="2">
@@ -3216,503 +3213,503 @@
         <v>101871.41404996428</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AD23" si="25">AA21-AA22</f>
+        <f t="shared" ref="AA23:AD23" si="26">AA21-AA22</f>
         <v>169779.7884790902</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>243684.74184630939</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>323122.07863276463</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>418287.84294509934</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" ref="AE23" si="26">AE21-AE22</f>
+        <f t="shared" ref="AE23" si="27">AE21-AE22</f>
         <v>532292.74416183145</v>
       </c>
       <c r="AF23" s="2">
-        <f>AE23*(1+$AH$26)</f>
+        <f t="shared" ref="AF23:BK23" si="28">AE23*(1+$AH$26)</f>
         <v>537615.67160344974</v>
       </c>
       <c r="AG23" s="2">
-        <f>AF23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>542991.82831948425</v>
       </c>
       <c r="AH23" s="2">
-        <f>AG23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>548421.74660267914</v>
       </c>
       <c r="AI23" s="2">
-        <f>AH23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>553905.96406870591</v>
       </c>
       <c r="AJ23" s="2">
-        <f>AI23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>559445.02370939299</v>
       </c>
       <c r="AK23" s="2">
-        <f>AJ23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>565039.47394648695</v>
       </c>
       <c r="AL23" s="2">
-        <f>AK23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>570689.86868595181</v>
       </c>
       <c r="AM23" s="2">
-        <f>AL23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>576396.76737281133</v>
       </c>
       <c r="AN23" s="2">
-        <f>AM23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>582160.73504653946</v>
       </c>
       <c r="AO23" s="2">
-        <f>AN23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>587982.34239700483</v>
       </c>
       <c r="AP23" s="2">
-        <f>AO23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>593862.16582097486</v>
       </c>
       <c r="AQ23" s="2">
-        <f>AP23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>599800.78747918457</v>
       </c>
       <c r="AR23" s="2">
-        <f>AQ23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>605798.79535397643</v>
       </c>
       <c r="AS23" s="2">
-        <f>AR23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>611856.78330751625</v>
       </c>
       <c r="AT23" s="2">
-        <f>AS23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>617975.35114059143</v>
       </c>
       <c r="AU23" s="2">
-        <f>AT23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>624155.10465199733</v>
       </c>
       <c r="AV23" s="2">
-        <f>AU23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>630396.65569851734</v>
       </c>
       <c r="AW23" s="2">
-        <f>AV23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>636700.6222555025</v>
       </c>
       <c r="AX23" s="2">
-        <f>AW23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>643067.62847805757</v>
       </c>
       <c r="AY23" s="2">
-        <f>AX23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>649498.30476283818</v>
       </c>
       <c r="AZ23" s="2">
-        <f>AY23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>655993.2878104666</v>
       </c>
       <c r="BA23" s="2">
-        <f>AZ23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>662553.22068857122</v>
       </c>
       <c r="BB23" s="2">
-        <f>BA23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>669178.75289545697</v>
       </c>
       <c r="BC23" s="2">
-        <f>BB23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>675870.54042441153</v>
       </c>
       <c r="BD23" s="2">
-        <f>BC23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>682629.24582865566</v>
       </c>
       <c r="BE23" s="2">
-        <f>BD23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>689455.53828694217</v>
       </c>
       <c r="BF23" s="2">
-        <f>BE23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>696350.09366981161</v>
       </c>
       <c r="BG23" s="2">
-        <f>BF23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>703313.59460650978</v>
       </c>
       <c r="BH23" s="2">
-        <f>BG23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>710346.73055257485</v>
       </c>
       <c r="BI23" s="2">
-        <f>BH23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>717450.19785810064</v>
       </c>
       <c r="BJ23" s="2">
-        <f>BI23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>724624.6998366816</v>
       </c>
       <c r="BK23" s="2">
-        <f>BJ23*(1+$AH$26)</f>
+        <f t="shared" si="28"/>
         <v>731870.94683504838</v>
       </c>
       <c r="BL23" s="2">
-        <f>BK23*(1+$AH$26)</f>
+        <f t="shared" ref="BL23:CQ23" si="29">BK23*(1+$AH$26)</f>
         <v>739189.65630339889</v>
       </c>
       <c r="BM23" s="2">
-        <f>BL23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>746581.55286643293</v>
       </c>
       <c r="BN23" s="2">
-        <f>BM23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>754047.36839509732</v>
       </c>
       <c r="BO23" s="2">
-        <f>BN23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>761587.84207904828</v>
       </c>
       <c r="BP23" s="2">
-        <f>BO23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>769203.72049983882</v>
       </c>
       <c r="BQ23" s="2">
-        <f>BP23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>776895.75770483725</v>
       </c>
       <c r="BR23" s="2">
-        <f>BQ23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>784664.71528188558</v>
       </c>
       <c r="BS23" s="2">
-        <f>BR23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>792511.36243470444</v>
       </c>
       <c r="BT23" s="2">
-        <f>BS23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>800436.47605905146</v>
       </c>
       <c r="BU23" s="2">
-        <f>BT23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>808440.84081964195</v>
       </c>
       <c r="BV23" s="2">
-        <f>BU23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>816525.24922783836</v>
       </c>
       <c r="BW23" s="2">
-        <f>BV23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>824690.50172011671</v>
       </c>
       <c r="BX23" s="2">
-        <f>BW23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>832937.40673731791</v>
       </c>
       <c r="BY23" s="2">
-        <f>BX23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>841266.78080469114</v>
       </c>
       <c r="BZ23" s="2">
-        <f>BY23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>849679.44861273805</v>
       </c>
       <c r="CA23" s="2">
-        <f>BZ23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>858176.2430988655</v>
       </c>
       <c r="CB23" s="2">
-        <f>CA23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>866758.00552985421</v>
       </c>
       <c r="CC23" s="2">
-        <f>CB23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>875425.58558515273</v>
       </c>
       <c r="CD23" s="2">
-        <f>CC23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>884179.8414410043</v>
       </c>
       <c r="CE23" s="2">
-        <f>CD23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>893021.6398554144</v>
       </c>
       <c r="CF23" s="2">
-        <f>CE23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>901951.85625396855</v>
       </c>
       <c r="CG23" s="2">
-        <f>CF23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>910971.37481650827</v>
       </c>
       <c r="CH23" s="2">
-        <f>CG23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>920081.08856467332</v>
       </c>
       <c r="CI23" s="2">
-        <f>CH23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>929281.89945032005</v>
       </c>
       <c r="CJ23" s="2">
-        <f>CI23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>938574.71844482329</v>
       </c>
       <c r="CK23" s="2">
-        <f>CJ23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>947960.46562927158</v>
       </c>
       <c r="CL23" s="2">
-        <f>CK23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>957440.07028556429</v>
       </c>
       <c r="CM23" s="2">
-        <f>CL23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>967014.47098841995</v>
       </c>
       <c r="CN23" s="2">
-        <f>CM23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>976684.61569830414</v>
       </c>
       <c r="CO23" s="2">
-        <f>CN23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>986451.4618552872</v>
       </c>
       <c r="CP23" s="2">
-        <f>CO23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>996315.97647384007</v>
       </c>
       <c r="CQ23" s="2">
-        <f>CP23*(1+$AH$26)</f>
+        <f t="shared" si="29"/>
         <v>1006279.1362385785</v>
       </c>
       <c r="CR23" s="2">
-        <f>CQ23*(1+$AH$26)</f>
+        <f t="shared" ref="CR23:DW23" si="30">CQ23*(1+$AH$26)</f>
         <v>1016341.9276009643</v>
       </c>
       <c r="CS23" s="2">
-        <f>CR23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1026505.346876974</v>
       </c>
       <c r="CT23" s="2">
-        <f>CS23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1036770.4003457438</v>
       </c>
       <c r="CU23" s="2">
-        <f>CT23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1047138.1043492012</v>
       </c>
       <c r="CV23" s="2">
-        <f>CU23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1057609.4853926932</v>
       </c>
       <c r="CW23" s="2">
-        <f>CV23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1068185.5802466201</v>
       </c>
       <c r="CX23" s="2">
-        <f>CW23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1078867.4360490863</v>
       </c>
       <c r="CY23" s="2">
-        <f>CX23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1089656.1104095771</v>
       </c>
       <c r="CZ23" s="2">
-        <f>CY23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1100552.6715136729</v>
       </c>
       <c r="DA23" s="2">
-        <f>CZ23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1111558.1982288097</v>
       </c>
       <c r="DB23" s="2">
-        <f>DA23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1122673.7802110978</v>
       </c>
       <c r="DC23" s="2">
-        <f>DB23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1133900.5180132089</v>
       </c>
       <c r="DD23" s="2">
-        <f>DC23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1145239.523193341</v>
       </c>
       <c r="DE23" s="2">
-        <f>DD23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1156691.9184252743</v>
       </c>
       <c r="DF23" s="2">
-        <f>DE23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1168258.8376095272</v>
       </c>
       <c r="DG23" s="2">
-        <f>DF23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1179941.4259856225</v>
       </c>
       <c r="DH23" s="2">
-        <f>DG23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1191740.8402454788</v>
       </c>
       <c r="DI23" s="2">
-        <f>DH23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1203658.2486479336</v>
       </c>
       <c r="DJ23" s="2">
-        <f>DI23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1215694.8311344129</v>
       </c>
       <c r="DK23" s="2">
-        <f>DJ23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1227851.7794457572</v>
       </c>
       <c r="DL23" s="2">
-        <f>DK23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1240130.2972402147</v>
       </c>
       <c r="DM23" s="2">
-        <f>DL23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1252531.6002126168</v>
       </c>
       <c r="DN23" s="2">
-        <f>DM23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1265056.9162147429</v>
       </c>
       <c r="DO23" s="2">
-        <f>DN23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1277707.4853768903</v>
       </c>
       <c r="DP23" s="2">
-        <f>DO23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1290484.5602306591</v>
       </c>
       <c r="DQ23" s="2">
-        <f>DP23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1303389.4058329656</v>
       </c>
       <c r="DR23" s="2">
-        <f>DQ23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1316423.2998912954</v>
       </c>
       <c r="DS23" s="2">
-        <f>DR23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1329587.5328902083</v>
       </c>
       <c r="DT23" s="2">
-        <f>DS23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1342883.4082191105</v>
       </c>
       <c r="DU23" s="2">
-        <f>DT23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1356312.2423013016</v>
       </c>
       <c r="DV23" s="2">
-        <f>DU23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1369875.3647243145</v>
       </c>
       <c r="DW23" s="2">
-        <f>DV23*(1+$AH$26)</f>
+        <f t="shared" si="30"/>
         <v>1383574.1183715577</v>
       </c>
       <c r="DX23" s="2">
-        <f>DW23*(1+$AH$26)</f>
+        <f t="shared" ref="DX23:EU23" si="31">DW23*(1+$AH$26)</f>
         <v>1397409.8595552733</v>
       </c>
       <c r="DY23" s="2">
-        <f>DX23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1411383.9581508262</v>
       </c>
       <c r="DZ23" s="2">
-        <f>DY23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1425497.7977323344</v>
       </c>
       <c r="EA23" s="2">
-        <f>DZ23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1439752.7757096577</v>
       </c>
       <c r="EB23" s="2">
-        <f>EA23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1454150.3034667543</v>
       </c>
       <c r="EC23" s="2">
-        <f>EB23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1468691.8065014218</v>
       </c>
       <c r="ED23" s="2">
-        <f>EC23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1483378.7245664361</v>
       </c>
       <c r="EE23" s="2">
-        <f>ED23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1498212.5118121004</v>
       </c>
       <c r="EF23" s="2">
-        <f>EE23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1513194.6369302215</v>
       </c>
       <c r="EG23" s="2">
-        <f>EF23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1528326.5832995237</v>
       </c>
       <c r="EH23" s="2">
-        <f>EG23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1543609.849132519</v>
       </c>
       <c r="EI23" s="2">
-        <f>EH23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1559045.9476238443</v>
       </c>
       <c r="EJ23" s="2">
-        <f>EI23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1574636.4071000826</v>
       </c>
       <c r="EK23" s="2">
-        <f>EJ23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1590382.7711710834</v>
       </c>
       <c r="EL23" s="2">
-        <f>EK23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1606286.5988827944</v>
       </c>
       <c r="EM23" s="2">
-        <f>EL23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1622349.4648716224</v>
       </c>
       <c r="EN23" s="2">
-        <f>EM23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1638572.9595203386</v>
       </c>
       <c r="EO23" s="2">
-        <f>EN23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1654958.689115542</v>
       </c>
       <c r="EP23" s="2">
-        <f>EO23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1671508.2760066974</v>
       </c>
       <c r="EQ23" s="2">
-        <f>EP23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1688223.3587667644</v>
       </c>
       <c r="ER23" s="2">
-        <f>EQ23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1705105.592354432</v>
       </c>
       <c r="ES23" s="2">
-        <f>ER23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1722156.6482779763</v>
       </c>
       <c r="ET23" s="2">
-        <f>ES23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1739378.2147607561</v>
       </c>
       <c r="EU23" s="2">
-        <f>ET23*(1+$AH$26)</f>
+        <f t="shared" si="31"/>
         <v>1756771.9969083637</v>
       </c>
     </row>
@@ -3731,11 +3728,11 @@
         <v>24487.945</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" ref="M24:N24" si="27">L24*0.995</f>
+        <f t="shared" ref="M24:N24" si="32">L24*0.995</f>
         <v>24365.505275</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>24243.677748624999</v>
       </c>
       <c r="W24" s="26">
@@ -3752,23 +3749,23 @@
         <v>24243.677748624999</v>
       </c>
       <c r="AA24" s="26">
-        <f t="shared" ref="AA24:AE24" si="28">Z24*0.99</f>
+        <f t="shared" ref="AA24:AE24" si="33">Z24*0.99</f>
         <v>24001.240971138748</v>
       </c>
       <c r="AB24" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>23761.228561427361</v>
       </c>
       <c r="AC24" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>23523.616275813085</v>
       </c>
       <c r="AD24" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>23288.380113054955</v>
       </c>
       <c r="AE24" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>23055.496311924406</v>
       </c>
     </row>
@@ -3781,31 +3778,31 @@
         <v>0.5978706307754118</v>
       </c>
       <c r="H25" s="32" t="e">
-        <f t="shared" ref="H25:N25" si="29">H23/H24</f>
+        <f t="shared" ref="H25:N25" si="34">H23/H24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="32" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="32" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.7628702612652879</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.96749380664649465</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1.1378720983760204</v>
       </c>
       <c r="N25" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1.30671800863649</v>
       </c>
       <c r="O25" s="32"/>
@@ -3822,27 +3819,27 @@
         <v>2.9868852459016395</v>
       </c>
       <c r="Z25" s="32">
-        <f t="shared" ref="Z25:AD25" si="30">Z23/Z24</f>
+        <f t="shared" ref="Z25:AD25" si="35">Z23/Z24</f>
         <v>4.2019785573062238</v>
       </c>
       <c r="AA25" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>7.073792087802822</v>
       </c>
       <c r="AB25" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>10.255561542886444</v>
       </c>
       <c r="AC25" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>13.736071650046334</v>
       </c>
       <c r="AD25" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>17.961225337034772</v>
       </c>
       <c r="AE25" s="32">
-        <f t="shared" ref="AE25" si="31">AE23/AE24</f>
+        <f t="shared" ref="AE25" si="36">AE23/AE24</f>
         <v>23.087455457921642</v>
       </c>
       <c r="AG25" s="26" t="s">
@@ -3880,76 +3877,76 @@
         <v>17</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" ref="H27:N27" si="32">H12/D12-1</f>
+        <f t="shared" ref="H27:N27" si="37">H12/D12-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.93609271523178816</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.77944170474596208</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.69182921210259551</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.5645805592543276</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.53925089789635705</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.51025908316595081</v>
       </c>
       <c r="O27" s="4"/>
       <c r="U27" s="4">
-        <f t="shared" ref="U27:AE27" si="33">U12/T12-1</f>
+        <f t="shared" ref="U27:AE27" si="38">U12/T12-1</f>
         <v>-6.8259385665529027E-2</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.52747252747252737</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.61714628297362117</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.56679463895721738</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.52932869677495087</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.36066403537995462</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.31807766737590759</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.28958323951499954</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.26946681437073505</v>
       </c>
       <c r="AG27" s="26" t="s">
@@ -3966,43 +3963,43 @@
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30">
-        <f t="shared" ref="E28:N28" si="34">E12/D12-1</f>
+        <f t="shared" ref="E28:N28" si="39">E12/D12-1</f>
         <v>0.34152661582882948</v>
       </c>
       <c r="F28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="G28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.17830158801972584</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.1534326524343419</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.16784287616511318</v>
       </c>
       <c r="J28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.12111624194743742</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.12028679667437903</v>
       </c>
       <c r="L28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6.6678770822931277E-2</v>
       </c>
       <c r="M28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.14893617021276606</v>
       </c>
       <c r="N28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O28" s="30"/>
@@ -4028,52 +4025,52 @@
         <v>77</v>
       </c>
       <c r="K29" s="30">
-        <f t="shared" ref="K29:N30" si="35">K15/G15-1</f>
+        <f t="shared" ref="K29:N30" si="40">K15/G15-1</f>
         <v>0.46654411764705883</v>
       </c>
       <c r="L29" s="30" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="30" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="30" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="30"/>
       <c r="X29" s="30">
-        <f t="shared" ref="X29:AE30" si="36">X15/W15-1</f>
+        <f t="shared" ref="X29:AE30" si="41">X15/W15-1</f>
         <v>0.18204115002043886</v>
       </c>
       <c r="Y29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.48864553314121029</v>
       </c>
       <c r="Z29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.38656083196530888</v>
       </c>
       <c r="AA29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AB29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AC29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AD29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AE29" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AG29" s="26" t="s">
@@ -4090,52 +4087,52 @@
         <v>78</v>
       </c>
       <c r="K30" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0.33976833976833976</v>
       </c>
       <c r="L30" s="30" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="30" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="30" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="30"/>
       <c r="X30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>8.7704918032786905E-2</v>
       </c>
       <c r="Y30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.31537302185380556</v>
       </c>
       <c r="Z30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.30205214551704396</v>
       </c>
       <c r="AA30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AB30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AD30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AE30" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH30" s="30">
@@ -4152,39 +4149,39 @@
         <v>19</v>
       </c>
       <c r="C32" s="4" t="e">
-        <f t="shared" ref="C32:K32" si="37">C14/C12</f>
+        <f t="shared" ref="C32:K32" si="42">C14/C12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0.60523807362353044</v>
       </c>
       <c r="L32" s="4">
@@ -4198,27 +4195,27 @@
       </c>
       <c r="O32" s="4"/>
       <c r="U32" s="4">
-        <f t="shared" ref="U32:Z32" si="38">U14/U12</f>
+        <f t="shared" ref="U32:Z32" si="43">U14/U12</f>
         <v>1</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.74988697058169917</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0.70794573074703371</v>
       </c>
       <c r="AA32" s="4">
@@ -4247,90 +4244,90 @@
         <v>33</v>
       </c>
       <c r="C33" s="30" t="e">
-        <f t="shared" ref="C33:N33" si="39">C18/C12</f>
+        <f t="shared" ref="C33:N33" si="44">C18/C12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.64924742743050223</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="J33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.49108074985248057</v>
       </c>
       <c r="L33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.59888170212765957</v>
       </c>
       <c r="M33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.6274738666666666</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.6502939490909091</v>
       </c>
       <c r="O33" s="30"/>
       <c r="U33" s="30"/>
       <c r="V33" s="30"/>
       <c r="W33" s="30">
-        <f t="shared" ref="W33:AD33" si="40">W18/W12</f>
+        <f t="shared" ref="W33:AD33" si="45">W18/W12</f>
         <v>0.20675465262845702</v>
       </c>
       <c r="X33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="Y33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.62417526839697468</v>
       </c>
       <c r="Z33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.59813798835969523</v>
       </c>
       <c r="AA33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.66212053808376681</v>
       </c>
       <c r="AB33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.70094417474266912</v>
       </c>
       <c r="AC33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.70657705997310616</v>
       </c>
       <c r="AD33" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0.71029528372638084</v>
       </c>
       <c r="AE33" s="30">
-        <f t="shared" ref="AE33" si="41">AE18/AE12</f>
+        <f t="shared" ref="AE33" si="46">AE18/AE12</f>
         <v>0.71277035179453307</v>
       </c>
       <c r="AF33" s="30"/>
@@ -4343,39 +4340,39 @@
         <v>21</v>
       </c>
       <c r="C35" s="26">
-        <f t="shared" ref="C35:K35" si="42">C36-C50</f>
+        <f t="shared" ref="C35:K35" si="47">C36-C50</f>
         <v>0</v>
       </c>
       <c r="D35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>44747</v>
       </c>
       <c r="H35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K35" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>45227</v>
       </c>
       <c r="L35" s="26">
@@ -4649,55 +4646,55 @@
         <v>28</v>
       </c>
       <c r="G57" s="26">
-        <f t="shared" ref="G57" si="43">G23</f>
+        <f t="shared" ref="G57" si="48">G23</f>
         <v>14881</v>
       </c>
       <c r="K57" s="26">
-        <f t="shared" ref="K57" si="44">K23</f>
+        <f t="shared" ref="K57" si="49">K23</f>
         <v>18775</v>
       </c>
       <c r="U57" s="26">
-        <f t="shared" ref="U57:AD57" si="45">U23</f>
+        <f t="shared" ref="U57:AD57" si="50">U23</f>
         <v>10920</v>
       </c>
       <c r="V57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>16680</v>
       </c>
       <c r="W57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>5721</v>
       </c>
       <c r="X57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>29760</v>
       </c>
       <c r="Y57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>72880</v>
       </c>
       <c r="Z57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>101871.41404996428</v>
       </c>
       <c r="AA57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>169779.7884790902</v>
       </c>
       <c r="AB57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>243684.74184630939</v>
       </c>
       <c r="AC57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>323122.07863276463</v>
       </c>
       <c r="AD57" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>418287.84294509934</v>
       </c>
       <c r="AE57" s="26">
-        <f t="shared" ref="AE57" si="46">AE23</f>
+        <f t="shared" ref="AE57" si="51">AE23</f>
         <v>532292.74416183145</v>
       </c>
     </row>
@@ -4739,23 +4736,23 @@
         <v>5684.4</v>
       </c>
       <c r="AA59" s="26">
-        <f t="shared" ref="AA59:AE59" si="47">Z59*1.2</f>
+        <f t="shared" ref="AA59:AE59" si="52">Z59*1.2</f>
         <v>6821.28</v>
       </c>
       <c r="AB59" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>8185.5359999999991</v>
       </c>
       <c r="AC59" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>9822.6431999999986</v>
       </c>
       <c r="AD59" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>11787.171839999997</v>
       </c>
       <c r="AE59" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>14144.606207999996</v>
       </c>
     </row>
@@ -4778,27 +4775,27 @@
         <v>1864</v>
       </c>
       <c r="Z60" s="26">
-        <f>Y60*(1+Z27)</f>
+        <f t="shared" ref="Z60:AE60" si="53">Y60*(1+Z27)</f>
         <v>2920.5052070162533</v>
       </c>
       <c r="AA60" s="26">
-        <f>Z60*(1+AA27)</f>
+        <f t="shared" si="53"/>
         <v>4466.4124221706252</v>
       </c>
       <c r="AB60" s="26">
-        <f>AA60*(1+AB27)</f>
+        <f t="shared" si="53"/>
         <v>6077.2867500218399</v>
       </c>
       <c r="AC60" s="26">
-        <f>AB60*(1+AC27)</f>
+        <f t="shared" si="53"/>
         <v>8010.3359434432969</v>
       </c>
       <c r="AD60" s="26">
-        <f>AC60*(1+AD27)</f>
+        <f t="shared" si="53"/>
         <v>10329.994975549047</v>
       </c>
       <c r="AE60" s="26">
-        <f>AD60*(1+AE27)</f>
+        <f t="shared" si="53"/>
         <v>13113.585814075948</v>
       </c>
       <c r="AF60" s="26"/>
@@ -5044,27 +5041,27 @@
         <v>4278</v>
       </c>
       <c r="Z68" s="26">
-        <f>Y68*(1+Z27)</f>
+        <f t="shared" ref="Z68:AE68" si="54">Y68*(1+Z27)</f>
         <v>6702.747465458976</v>
       </c>
       <c r="AA68" s="26">
-        <f>Z68*(1+AA27)</f>
+        <f t="shared" si="54"/>
         <v>10250.70404616198</v>
       </c>
       <c r="AB68" s="26">
-        <f>AA68*(1+AB27)</f>
+        <f t="shared" si="54"/>
         <v>13947.764332936389</v>
       </c>
       <c r="AC68" s="26">
-        <f>AB68*(1+AC27)</f>
+        <f t="shared" si="54"/>
         <v>18384.236677065677</v>
       </c>
       <c r="AD68" s="26">
-        <f>AC68*(1+AD27)</f>
+        <f t="shared" si="54"/>
         <v>23708.003490020827</v>
       </c>
       <c r="AE68" s="26">
-        <f>AD68*(1+AE27)</f>
+        <f t="shared" si="54"/>
         <v>30096.523665567009</v>
       </c>
     </row>
@@ -5082,27 +5079,27 @@
         <v>1221</v>
       </c>
       <c r="Z69" s="26">
-        <f>Y69*(1+Z27)</f>
+        <f t="shared" ref="Z69:AE69" si="55">Y69*(1+Z27)</f>
         <v>1913.0562541667625</v>
       </c>
       <c r="AA69" s="26">
-        <f>Z69*(1+AA27)</f>
+        <f t="shared" si="55"/>
         <v>2925.6918280420241</v>
       </c>
       <c r="AB69" s="26">
-        <f>AA69*(1+AB27)</f>
+        <f t="shared" si="55"/>
         <v>3980.8836490218168</v>
       </c>
       <c r="AC69" s="26">
-        <f>AB69*(1+AC27)</f>
+        <f t="shared" si="55"/>
         <v>5247.1138341975675</v>
       </c>
       <c r="AD69" s="26">
-        <f>AC69*(1+AD27)</f>
+        <f t="shared" si="55"/>
         <v>6766.5900564084695</v>
       </c>
       <c r="AE69" s="26">
-        <f>AD69*(1+AE27)</f>
+        <f t="shared" si="55"/>
         <v>8589.9615230615527</v>
       </c>
     </row>
@@ -5119,31 +5116,31 @@
         <v>0</v>
       </c>
       <c r="Y70" s="26">
-        <f t="shared" ref="Y70:AD70" si="48">SUM(Y36:Y39)-SUM(Y48:Y49)</f>
+        <f t="shared" ref="Y70:AD70" si="56">SUM(Y36:Y39)-SUM(Y48:Y49)</f>
         <v>43210</v>
       </c>
       <c r="Z70" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AA70" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB70" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AC70" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AD70" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AE70" s="26">
-        <f t="shared" ref="AE70" si="49">SUM(AE36:AE39)-SUM(AE48:AE49)</f>
+        <f t="shared" ref="AE70" si="57">SUM(AE36:AE39)-SUM(AE48:AE49)</f>
         <v>0</v>
       </c>
     </row>
@@ -5181,23 +5178,23 @@
         <v>119272.12297660628</v>
       </c>
       <c r="AA71" s="26">
-        <f t="shared" ref="AA71:AD71" si="50">SUM(AA59:AA69,AA57)</f>
+        <f t="shared" ref="AA71:AD71" si="58">SUM(AA59:AA69,AA57)</f>
         <v>194243.87677546483</v>
       </c>
       <c r="AB71" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>275876.21257828944</v>
       </c>
       <c r="AC71" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>364586.40828747116</v>
       </c>
       <c r="AD71" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>470879.60330707766</v>
       </c>
       <c r="AE71" s="26">
-        <f t="shared" ref="AE71" si="51">SUM(AE59:AE69,AE57)</f>
+        <f t="shared" ref="AE71" si="59">SUM(AE59:AE69,AE57)</f>
         <v>598237.42137253599</v>
       </c>
     </row>
@@ -5227,27 +5224,27 @@
         <v>-3236</v>
       </c>
       <c r="Z73" s="26">
-        <f>Y73*(1+Z27)</f>
+        <f t="shared" ref="Z73:AE73" si="60">Y73*(1+Z27)</f>
         <v>-5070.1474516655553</v>
       </c>
       <c r="AA73" s="26">
-        <f>Z73*(1+AA27)</f>
+        <f t="shared" si="60"/>
         <v>-7753.9219947125221</v>
       </c>
       <c r="AB73" s="26">
-        <f>AA73*(1+AB27)</f>
+        <f t="shared" si="60"/>
         <v>-10550.482791346927</v>
       </c>
       <c r="AC73" s="26">
-        <f>AB73*(1+AC27)</f>
+        <f t="shared" si="60"/>
         <v>-13906.355747308213</v>
       </c>
       <c r="AD73" s="26">
-        <f>AC73*(1+AD27)</f>
+        <f t="shared" si="60"/>
         <v>-17933.403294461757</v>
       </c>
       <c r="AE73" s="26">
-        <f>AD73*(1+AE27)</f>
+        <f t="shared" si="60"/>
         <v>-22765.860351046013</v>
       </c>
     </row>
@@ -5364,443 +5361,443 @@
         <v>3750</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" ref="X86:AE86" si="52">X71+X73</f>
+        <f t="shared" ref="X86:AE86" si="61">X71+X73</f>
         <v>27021</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>60853</v>
       </c>
       <c r="Z86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>114201.97552494072</v>
       </c>
       <c r="AA86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>186489.9547807523</v>
       </c>
       <c r="AB86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>265325.72978694254</v>
       </c>
       <c r="AC86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>350680.05254016293</v>
       </c>
       <c r="AD86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>452946.20001261588</v>
       </c>
       <c r="AE86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>575471.56102149002</v>
       </c>
       <c r="AF86" s="2">
-        <f>AE86*(1+$AH$26)</f>
+        <f t="shared" ref="AF86:BK86" si="62">AE86*(1+$AH$26)</f>
         <v>581226.27663170488</v>
       </c>
       <c r="AG86" s="2">
-        <f>AF86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>587038.53939802188</v>
       </c>
       <c r="AH86" s="2">
-        <f>AG86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>592908.92479200207</v>
       </c>
       <c r="AI86" s="2">
-        <f>AH86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>598838.01403992204</v>
       </c>
       <c r="AJ86" s="2">
-        <f>AI86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>604826.39418032125</v>
       </c>
       <c r="AK86" s="2">
-        <f>AJ86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>610874.6581221245</v>
       </c>
       <c r="AL86" s="2">
-        <f>AK86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>616983.40470334573</v>
       </c>
       <c r="AM86" s="2">
-        <f>AL86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>623153.23875037918</v>
       </c>
       <c r="AN86" s="2">
-        <f>AM86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>629384.77113788296</v>
       </c>
       <c r="AO86" s="2">
-        <f>AN86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>635678.61884926178</v>
       </c>
       <c r="AP86" s="2">
-        <f>AO86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>642035.40503775445</v>
       </c>
       <c r="AQ86" s="2">
-        <f>AP86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>648455.75908813195</v>
       </c>
       <c r="AR86" s="2">
-        <f>AQ86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>654940.31667901331</v>
       </c>
       <c r="AS86" s="2">
-        <f>AR86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>661489.71984580345</v>
       </c>
       <c r="AT86" s="2">
-        <f>AS86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>668104.61704426154</v>
       </c>
       <c r="AU86" s="2">
-        <f>AT86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>674785.66321470414</v>
       </c>
       <c r="AV86" s="2">
-        <f>AU86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>681533.51984685124</v>
       </c>
       <c r="AW86" s="2">
-        <f>AV86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>688348.85504531977</v>
       </c>
       <c r="AX86" s="2">
-        <f>AW86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>695232.34359577298</v>
       </c>
       <c r="AY86" s="2">
-        <f>AX86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>702184.66703173076</v>
       </c>
       <c r="AZ86" s="2">
-        <f>AY86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>709206.51370204811</v>
       </c>
       <c r="BA86" s="2">
-        <f>AZ86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>716298.57883906865</v>
       </c>
       <c r="BB86" s="2">
-        <f>BA86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>723461.56462745939</v>
       </c>
       <c r="BC86" s="2">
-        <f>BB86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>730696.18027373403</v>
       </c>
       <c r="BD86" s="2">
-        <f>BC86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>738003.14207647135</v>
       </c>
       <c r="BE86" s="2">
-        <f>BD86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>745383.1734972361</v>
       </c>
       <c r="BF86" s="2">
-        <f>BE86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>752837.00523220852</v>
       </c>
       <c r="BG86" s="2">
-        <f>BF86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>760365.37528453057</v>
       </c>
       <c r="BH86" s="2">
-        <f>BG86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>767969.02903737593</v>
       </c>
       <c r="BI86" s="2">
-        <f>BH86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>775648.71932774968</v>
       </c>
       <c r="BJ86" s="2">
-        <f>BI86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>783405.20652102714</v>
       </c>
       <c r="BK86" s="2">
-        <f>BJ86*(1+$AH$26)</f>
+        <f t="shared" si="62"/>
         <v>791239.25858623744</v>
       </c>
       <c r="BL86" s="2">
-        <f>BK86*(1+$AH$26)</f>
+        <f t="shared" ref="BL86:CQ86" si="63">BK86*(1+$AH$26)</f>
         <v>799151.65117209987</v>
       </c>
       <c r="BM86" s="2">
-        <f>BL86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>807143.16768382082</v>
       </c>
       <c r="BN86" s="2">
-        <f>BM86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>815214.59936065902</v>
       </c>
       <c r="BO86" s="2">
-        <f>BN86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>823366.74535426567</v>
       </c>
       <c r="BP86" s="2">
-        <f>BO86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>831600.41280780837</v>
       </c>
       <c r="BQ86" s="2">
-        <f>BP86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>839916.41693588649</v>
       </c>
       <c r="BR86" s="2">
-        <f>BQ86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>848315.58110524539</v>
       </c>
       <c r="BS86" s="2">
-        <f>BR86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>856798.73691629781</v>
       </c>
       <c r="BT86" s="2">
-        <f>BS86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>865366.72428546078</v>
       </c>
       <c r="BU86" s="2">
-        <f>BT86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>874020.39152831538</v>
       </c>
       <c r="BV86" s="2">
-        <f>BU86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>882760.59544359858</v>
       </c>
       <c r="BW86" s="2">
-        <f>BV86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>891588.20139803458</v>
       </c>
       <c r="BX86" s="2">
-        <f>BW86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>900504.08341201488</v>
       </c>
       <c r="BY86" s="2">
-        <f>BX86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>909509.124246135</v>
       </c>
       <c r="BZ86" s="2">
-        <f>BY86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>918604.21548859635</v>
       </c>
       <c r="CA86" s="2">
-        <f>BZ86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>927790.2576434823</v>
       </c>
       <c r="CB86" s="2">
-        <f>CA86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>937068.16021991707</v>
       </c>
       <c r="CC86" s="2">
-        <f>CB86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>946438.84182211629</v>
       </c>
       <c r="CD86" s="2">
-        <f>CC86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>955903.23024033743</v>
       </c>
       <c r="CE86" s="2">
-        <f>CD86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>965462.26254274079</v>
       </c>
       <c r="CF86" s="2">
-        <f>CE86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>975116.88516816823</v>
       </c>
       <c r="CG86" s="2">
-        <f>CF86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>984868.05401984986</v>
       </c>
       <c r="CH86" s="2">
-        <f>CG86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>994716.73456004832</v>
       </c>
       <c r="CI86" s="2">
-        <f>CH86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1004663.9019056488</v>
       </c>
       <c r="CJ86" s="2">
-        <f>CI86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1014710.5409247052</v>
       </c>
       <c r="CK86" s="2">
-        <f>CJ86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1024857.6463339523</v>
       </c>
       <c r="CL86" s="2">
-        <f>CK86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1035106.2227972918</v>
       </c>
       <c r="CM86" s="2">
-        <f>CL86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1045457.2850252647</v>
       </c>
       <c r="CN86" s="2">
-        <f>CM86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1055911.8578755173</v>
       </c>
       <c r="CO86" s="2">
-        <f>CN86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1066470.9764542726</v>
       </c>
       <c r="CP86" s="2">
-        <f>CO86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1077135.6862188154</v>
       </c>
       <c r="CQ86" s="2">
-        <f>CP86*(1+$AH$26)</f>
+        <f t="shared" si="63"/>
         <v>1087907.0430810035</v>
       </c>
       <c r="CR86" s="2">
-        <f>CQ86*(1+$AH$26)</f>
+        <f t="shared" ref="CR86:DW86" si="64">CQ86*(1+$AH$26)</f>
         <v>1098786.1135118136</v>
       </c>
       <c r="CS86" s="2">
-        <f>CR86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1109773.9746469317</v>
       </c>
       <c r="CT86" s="2">
-        <f>CS86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1120871.7143934011</v>
       </c>
       <c r="CU86" s="2">
-        <f>CT86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1132080.431537335</v>
       </c>
       <c r="CV86" s="2">
-        <f>CU86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1143401.2358527083</v>
       </c>
       <c r="CW86" s="2">
-        <f>CV86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1154835.2482112355</v>
       </c>
       <c r="CX86" s="2">
-        <f>CW86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1166383.6006933479</v>
       </c>
       <c r="CY86" s="2">
-        <f>CX86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1178047.4367002815</v>
       </c>
       <c r="CZ86" s="2">
-        <f>CY86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1189827.9110672842</v>
       </c>
       <c r="DA86" s="2">
-        <f>CZ86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1201726.1901779571</v>
       </c>
       <c r="DB86" s="2">
-        <f>DA86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1213743.4520797366</v>
       </c>
       <c r="DC86" s="2">
-        <f>DB86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1225880.886600534</v>
       </c>
       <c r="DD86" s="2">
-        <f>DC86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1238139.6954665394</v>
       </c>
       <c r="DE86" s="2">
-        <f>DD86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1250521.0924212048</v>
       </c>
       <c r="DF86" s="2">
-        <f>DE86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1263026.3033454169</v>
       </c>
       <c r="DG86" s="2">
-        <f>DF86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1275656.566378871</v>
       </c>
       <c r="DH86" s="2">
-        <f>DG86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1288413.1320426597</v>
       </c>
       <c r="DI86" s="2">
-        <f>DH86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1301297.2633630864</v>
       </c>
       <c r="DJ86" s="2">
-        <f>DI86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1314310.2359967174</v>
       </c>
       <c r="DK86" s="2">
-        <f>DJ86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1327453.3383566844</v>
       </c>
       <c r="DL86" s="2">
-        <f>DK86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1340727.8717402513</v>
       </c>
       <c r="DM86" s="2">
-        <f>DL86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1354135.1504576539</v>
       </c>
       <c r="DN86" s="2">
-        <f>DM86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1367676.5019622305</v>
       </c>
       <c r="DO86" s="2">
-        <f>DN86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1381353.2669818529</v>
       </c>
       <c r="DP86" s="2">
-        <f>DO86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1395166.7996516714</v>
       </c>
       <c r="DQ86" s="2">
-        <f>DP86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1409118.4676481881</v>
       </c>
       <c r="DR86" s="2">
-        <f>DQ86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1423209.65232467</v>
       </c>
       <c r="DS86" s="2">
-        <f>DR86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1437441.7488479167</v>
       </c>
       <c r="DT86" s="2">
-        <f>DS86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1451816.166336396</v>
       </c>
       <c r="DU86" s="2">
-        <f>DT86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1466334.3279997599</v>
       </c>
       <c r="DV86" s="2">
-        <f>DU86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1480997.6712797575</v>
       </c>
       <c r="DW86" s="2">
-        <f>DV86*(1+$AH$26)</f>
+        <f t="shared" si="64"/>
         <v>1495807.6479925551</v>
       </c>
       <c r="DX86" s="2">
-        <f>DW86*(1+$AH$26)</f>
+        <f t="shared" ref="DX86:EC86" si="65">DW86*(1+$AH$26)</f>
         <v>1510765.7244724806</v>
       </c>
       <c r="DY86" s="2">
-        <f>DX86*(1+$AH$26)</f>
+        <f t="shared" si="65"/>
         <v>1525873.3817172055</v>
       </c>
       <c r="DZ86" s="2">
-        <f>DY86*(1+$AH$26)</f>
+        <f t="shared" si="65"/>
         <v>1541132.1155343775</v>
       </c>
       <c r="EA86" s="2">
-        <f>DZ86*(1+$AH$26)</f>
+        <f t="shared" si="65"/>
         <v>1556543.4366897214</v>
       </c>
       <c r="EB86" s="2">
-        <f>EA86*(1+$AH$26)</f>
+        <f t="shared" si="65"/>
         <v>1572108.8710566186</v>
       </c>
       <c r="EC86" s="2">
-        <f>EB86*(1+$AH$26)</f>
+        <f t="shared" si="65"/>
         <v>1587829.9597671849</v>
       </c>
     </row>
@@ -5892,7 +5889,11 @@
     <row r="105" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
       <c r="B105" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
+      </c>
+      <c r="Y105" s="2">
+        <f>SUM(Y88:Y104)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5965,27 +5966,27 @@
         <v>153</v>
       </c>
       <c r="D109" s="2">
-        <f>D11/D110</f>
+        <f t="shared" ref="D109:I109" si="66">D11/D110</f>
         <v>344.1</v>
       </c>
       <c r="E109" s="2">
-        <f>E11/E110</f>
+        <f t="shared" si="66"/>
         <v>483.8</v>
       </c>
       <c r="F109" s="2">
-        <f>F11/F110</f>
+        <f t="shared" si="66"/>
         <v>613.4666666666667</v>
       </c>
       <c r="G109" s="2">
-        <f>G11/G110</f>
+        <f t="shared" si="66"/>
         <v>752.1</v>
       </c>
       <c r="H109" s="2">
-        <f>H11/H110</f>
+        <f t="shared" si="66"/>
         <v>875.73333333333335</v>
       </c>
       <c r="I109" s="2">
-        <f>I11/I110</f>
+        <f t="shared" si="66"/>
         <v>1025.7</v>
       </c>
       <c r="T109" s="38"/>
@@ -6049,39 +6050,39 @@
         <v>181</v>
       </c>
       <c r="C112" s="26">
-        <f t="shared" ref="C112:K112" si="53">+C113-C114</f>
+        <f t="shared" ref="C112:K112" si="67">+C113-C114</f>
         <v>16301.507142857143</v>
       </c>
       <c r="D112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>4911.1571428571406</v>
       </c>
       <c r="E112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>880.00714285714275</v>
       </c>
       <c r="F112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>-647.79285714285652</v>
       </c>
       <c r="G112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>-2786.8428571428558</v>
       </c>
       <c r="H112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>-2171.2428571428572</v>
       </c>
       <c r="I112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>-1903.9499999999971</v>
       </c>
       <c r="J112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>-361.90000000000146</v>
       </c>
       <c r="K112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>481.70000000000437</v>
       </c>
       <c r="P112" s="34"/>
@@ -6092,35 +6093,35 @@
         <v>182</v>
       </c>
       <c r="C113" s="26">
-        <f t="shared" ref="C113:J113" si="54">+C116*0.45</f>
+        <f t="shared" ref="C113:J113" si="68">+C116*0.45</f>
         <v>16301.507142857143</v>
       </c>
       <c r="D113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>18418.157142857141</v>
       </c>
       <c r="E113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>19000.007142857143</v>
       </c>
       <c r="F113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>21455.207142857143</v>
       </c>
       <c r="G113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>23257.157142857144</v>
       </c>
       <c r="H113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>27868.757142857143</v>
       </c>
       <c r="I113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>33178.050000000003</v>
       </c>
       <c r="J113" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>38969.1</v>
       </c>
       <c r="K113" s="26">
@@ -6132,11 +6133,11 @@
         <v>47511.600000000006</v>
       </c>
       <c r="M113" s="26">
-        <f t="shared" ref="M113:N113" si="55">+M116*0.4</f>
+        <f t="shared" ref="M113:N113" si="69">+M116*0.4</f>
         <v>52510.720000000001</v>
       </c>
       <c r="N113" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>54343.104000000007</v>
       </c>
       <c r="P113" s="34"/>
@@ -6147,51 +6148,51 @@
         <v>6</v>
       </c>
       <c r="C114" s="26">
-        <f>C12</f>
+        <f t="shared" ref="C114:N114" si="70">C12</f>
         <v>0</v>
       </c>
       <c r="D114" s="26">
-        <f>D12</f>
+        <f t="shared" si="70"/>
         <v>13507</v>
       </c>
       <c r="E114" s="26">
-        <f>E12</f>
+        <f t="shared" si="70"/>
         <v>18120</v>
       </c>
       <c r="F114" s="26">
-        <f>F12</f>
+        <f t="shared" si="70"/>
         <v>22103</v>
       </c>
       <c r="G114" s="26">
-        <f>G12</f>
+        <f t="shared" si="70"/>
         <v>26044</v>
       </c>
       <c r="H114" s="26">
-        <f>H12</f>
+        <f t="shared" si="70"/>
         <v>30040</v>
       </c>
       <c r="I114" s="26">
-        <f>I12</f>
+        <f t="shared" si="70"/>
         <v>35082</v>
       </c>
       <c r="J114" s="26">
-        <f>J12</f>
+        <f t="shared" si="70"/>
         <v>39331</v>
       </c>
       <c r="K114" s="26">
-        <f>K12</f>
+        <f t="shared" si="70"/>
         <v>44062</v>
       </c>
       <c r="L114" s="26">
-        <f>L12</f>
+        <f t="shared" si="70"/>
         <v>47000</v>
       </c>
       <c r="M114" s="26">
-        <f>M12</f>
+        <f t="shared" si="70"/>
         <v>54000</v>
       </c>
       <c r="N114" s="26">
-        <f>N12</f>
+        <f t="shared" si="70"/>
         <v>59400.000000000007</v>
       </c>
       <c r="P114" s="34"/>
@@ -6202,51 +6203,51 @@
         <v>183</v>
       </c>
       <c r="C115" s="35">
-        <f>C11</f>
+        <f t="shared" ref="C115:N115" si="71">C11</f>
         <v>0</v>
       </c>
       <c r="D115" s="35">
-        <f>D11</f>
+        <f t="shared" si="71"/>
         <v>10323</v>
       </c>
       <c r="E115" s="35">
-        <f>E11</f>
+        <f t="shared" si="71"/>
         <v>14514</v>
       </c>
       <c r="F115" s="35">
-        <f>F11</f>
+        <f t="shared" si="71"/>
         <v>18404</v>
       </c>
       <c r="G115" s="35">
-        <f>G11</f>
+        <f t="shared" si="71"/>
         <v>22563</v>
       </c>
       <c r="H115" s="35">
-        <f>H11</f>
+        <f t="shared" si="71"/>
         <v>26272</v>
       </c>
       <c r="I115" s="35">
-        <f>I11</f>
+        <f t="shared" si="71"/>
         <v>30771</v>
       </c>
       <c r="J115" s="35">
-        <f>J11</f>
+        <f t="shared" si="71"/>
         <v>35580</v>
       </c>
       <c r="K115" s="35">
-        <f>K11</f>
+        <f t="shared" si="71"/>
         <v>39112</v>
       </c>
       <c r="L115" s="35">
-        <f>L11</f>
+        <f t="shared" si="71"/>
         <v>35000</v>
       </c>
       <c r="M115" s="35">
-        <f>M11</f>
+        <f t="shared" si="71"/>
         <v>48060</v>
       </c>
       <c r="N115" s="35">
-        <f>N11</f>
+        <f t="shared" si="71"/>
         <v>52866.000000000007</v>
       </c>
       <c r="P115" s="34"/>
@@ -6261,47 +6262,47 @@
         <v>36225.571428571428</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" ref="D116:N116" si="56">SUM(D117:D125)</f>
+        <f t="shared" ref="D116:N116" si="72">SUM(D117:D125)</f>
         <v>40929.238095238092</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>42222.238095238092</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>47678.238095238092</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>51682.571428571428</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>61930.571428571428</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>73729</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>86598</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>98986</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>118779</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>131276.79999999999</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>135857.76</v>
       </c>
       <c r="P116" s="28"/>
@@ -6330,27 +6331,27 @@
         <v>1500</v>
       </c>
       <c r="I117" s="26">
-        <f t="shared" ref="I117:N117" si="57">+H117+500</f>
+        <f t="shared" ref="I117:N117" si="73">+H117+500</f>
         <v>2000</v>
       </c>
       <c r="J117" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>2500</v>
       </c>
       <c r="K117" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>3000</v>
       </c>
       <c r="L117" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>3500</v>
       </c>
       <c r="M117" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>4000</v>
       </c>
       <c r="N117" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>4500</v>
       </c>
       <c r="P117" s="35"/>
@@ -6403,7 +6404,7 @@
         <v>7200</v>
       </c>
       <c r="Y118" s="26">
-        <f t="shared" ref="Y118:AE118" si="58">Y128</f>
+        <f t="shared" ref="Y118:AE118" si="74">Y128</f>
         <v>7000</v>
       </c>
       <c r="Z118" s="26">
@@ -6411,23 +6412,23 @@
         <v>8400</v>
       </c>
       <c r="AA118" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>14400</v>
       </c>
       <c r="AB118" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>17280</v>
       </c>
       <c r="AC118" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>20736</v>
       </c>
       <c r="AD118" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>24883.200000000001</v>
       </c>
       <c r="AE118" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>29859.84</v>
       </c>
     </row>
@@ -6480,7 +6481,7 @@
         <v>7102</v>
       </c>
       <c r="Y119" s="26">
-        <f>Y129-(X129-X119)</f>
+        <f t="shared" ref="Y119:Y125" si="75">Y129-(X129-X119)</f>
         <v>27452</v>
       </c>
       <c r="Z119" s="26">
@@ -6492,19 +6493,19 @@
         <v>52742.703999999998</v>
       </c>
       <c r="AB119" s="26">
-        <f t="shared" ref="AB119:AE125" si="59">AA119+(AB129-AA129)</f>
+        <f t="shared" ref="AB119:AE125" si="76">AA119+(AB129-AA129)</f>
         <v>72052.758399999992</v>
       </c>
       <c r="AC119" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>95224.823679999972</v>
       </c>
       <c r="AD119" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>123031.30201599997</v>
       </c>
       <c r="AE119" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>156399.07601919997</v>
       </c>
     </row>
@@ -6561,31 +6562,31 @@
         <v>751</v>
       </c>
       <c r="Y120" s="26">
-        <f>Y130-(X130-X120)</f>
+        <f t="shared" si="75"/>
         <v>21035</v>
       </c>
       <c r="Z120" s="26">
-        <f t="shared" ref="Z120:Z125" si="60">(Z130-V130)*0.7</f>
+        <f t="shared" ref="Z120:Z125" si="77">(Z130-V130)*0.7</f>
         <v>38174.5</v>
       </c>
       <c r="AA120" s="26">
-        <f t="shared" ref="AA120:AD125" si="61">Z120+(AA130-Z130)</f>
+        <f t="shared" ref="AA120:AD125" si="78">Z120+(AA130-Z130)</f>
         <v>55381.5</v>
       </c>
       <c r="AB120" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>76029.899999999994</v>
       </c>
       <c r="AC120" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>100807.97999999998</v>
       </c>
       <c r="AD120" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>130541.67599999998</v>
       </c>
       <c r="AE120" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>166222.11119999996</v>
       </c>
     </row>
@@ -6637,31 +6638,31 @@
         <v>0</v>
       </c>
       <c r="Y121" s="26">
-        <f>Y131-(X131-X121)</f>
+        <f t="shared" si="75"/>
         <v>30270</v>
       </c>
       <c r="Z121" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="77"/>
         <v>40577.599999999999</v>
       </c>
       <c r="AA121" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>64891.200000000004</v>
       </c>
       <c r="AB121" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>94067.520000000019</v>
       </c>
       <c r="AC121" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>129079.10400000002</v>
       </c>
       <c r="AD121" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>171093.00480000002</v>
       </c>
       <c r="AE121" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>221509.68575999999</v>
       </c>
     </row>
@@ -6716,31 +6717,31 @@
         <v>5714.2857142857147</v>
       </c>
       <c r="Y122" s="26">
-        <f>Y132-(X132-X122)</f>
+        <f t="shared" si="75"/>
         <v>9057.1428571428569</v>
       </c>
       <c r="Z122" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="77"/>
         <v>30099.999999999996</v>
       </c>
       <c r="AA122" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>38700</v>
       </c>
       <c r="AB122" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>49020</v>
       </c>
       <c r="AC122" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>61404</v>
       </c>
       <c r="AD122" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>76264.800000000003</v>
       </c>
       <c r="AE122" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>94097.76</v>
       </c>
     </row>
@@ -6796,31 +6797,31 @@
         <v>2720.9999999999995</v>
       </c>
       <c r="Y123" s="26">
-        <f>Y133-(X133-X123)</f>
+        <f t="shared" si="75"/>
         <v>8483</v>
       </c>
       <c r="Z123" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="77"/>
         <v>6556.2</v>
       </c>
       <c r="AA123" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>8429.3999999999978</v>
       </c>
       <c r="AB123" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>10677.239999999998</v>
       </c>
       <c r="AC123" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>13374.647999999997</v>
       </c>
       <c r="AD123" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>16611.537599999996</v>
       </c>
       <c r="AE123" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>20495.805119999994</v>
       </c>
     </row>
@@ -6873,31 +6874,31 @@
         <v>0</v>
       </c>
       <c r="Y124" s="26">
-        <f>Y134-(X134-X124)</f>
+        <f t="shared" si="75"/>
         <v>10211</v>
       </c>
       <c r="Z124" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="77"/>
         <v>32866.400000000001</v>
       </c>
       <c r="AA124" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>48496.799999999996</v>
       </c>
       <c r="AB124" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>67253.279999999999</v>
       </c>
       <c r="AC124" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>89761.055999999997</v>
       </c>
       <c r="AD124" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>116770.38719999998</v>
       </c>
       <c r="AE124" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>149181.58463999996</v>
       </c>
     </row>
@@ -6948,31 +6949,31 @@
         <v>0</v>
       </c>
       <c r="Y125" s="26">
-        <f>Y135-(X135-X125)</f>
+        <f t="shared" si="75"/>
         <v>10865</v>
       </c>
       <c r="Z125" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="77"/>
         <v>21784</v>
       </c>
       <c r="AA125" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>29648</v>
       </c>
       <c r="AB125" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>39084.799999999996</v>
       </c>
       <c r="AC125" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>50408.959999999992</v>
       </c>
       <c r="AD125" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="78"/>
         <v>63997.95199999999</v>
       </c>
       <c r="AE125" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>80304.742399999988</v>
       </c>
     </row>
@@ -7001,31 +7002,31 @@
         <v>23488.285714285714</v>
       </c>
       <c r="Y126" s="26">
-        <f t="shared" ref="Y126:AE126" si="62">SUM(Y118:Y125)</f>
+        <f t="shared" ref="Y126:AE126" si="79">SUM(Y118:Y125)</f>
         <v>124373.14285714286</v>
       </c>
       <c r="Z126" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>215109.69200000001</v>
       </c>
       <c r="AA126" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>312689.60399999999</v>
       </c>
       <c r="AB126" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>425465.49839999998</v>
       </c>
       <c r="AC126" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>560796.57167999994</v>
       </c>
       <c r="AD126" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>723193.85961599997</v>
       </c>
       <c r="AE126" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>918070.60513919999</v>
       </c>
     </row>
@@ -7079,15 +7080,15 @@
         <v>26200</v>
       </c>
       <c r="X128" s="35">
-        <f>SUM(C118:F118)</f>
+        <f t="shared" ref="X128:X135" si="80">SUM(C118:F118)</f>
         <v>7200</v>
       </c>
       <c r="Y128" s="35">
-        <f>SUM(G118:J118)</f>
+        <f t="shared" ref="Y128:Y135" si="81">SUM(G118:J118)</f>
         <v>7000</v>
       </c>
       <c r="Z128" s="35">
-        <f>SUM(K118:N118)</f>
+        <f t="shared" ref="Z128:Z135" si="82">SUM(K118:N118)</f>
         <v>12000</v>
       </c>
       <c r="AA128" s="35">
@@ -7095,19 +7096,19 @@
         <v>14400</v>
       </c>
       <c r="AB128" s="35">
-        <f t="shared" ref="AB128:AE135" si="63">AA128*1.2</f>
+        <f t="shared" ref="AB128:AE135" si="83">AA128*1.2</f>
         <v>17280</v>
       </c>
       <c r="AC128" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>20736</v>
       </c>
       <c r="AD128" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>24883.200000000001</v>
       </c>
       <c r="AE128" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>29859.84</v>
       </c>
     </row>
@@ -7141,15 +7142,15 @@
         <v>41200</v>
       </c>
       <c r="X129" s="35">
-        <f>SUM(C119:F119)</f>
+        <f t="shared" si="80"/>
         <v>35202</v>
       </c>
       <c r="Y129" s="35">
-        <f>SUM(G119:J119)</f>
+        <f t="shared" si="81"/>
         <v>55552</v>
       </c>
       <c r="Z129" s="35">
-        <f>SUM(K119:N119)</f>
+        <f t="shared" si="82"/>
         <v>80458.559999999998</v>
       </c>
       <c r="AA129" s="35">
@@ -7157,19 +7158,19 @@
         <v>96550.271999999997</v>
       </c>
       <c r="AB129" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>115860.32639999999</v>
       </c>
       <c r="AC129" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>139032.39167999997</v>
       </c>
       <c r="AD129" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>166838.87001599997</v>
       </c>
       <c r="AE129" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>200206.64401919997</v>
       </c>
     </row>
@@ -7203,35 +7204,35 @@
         <v>32300</v>
       </c>
       <c r="X130" s="35">
-        <f>SUM(C120:F120)</f>
+        <f t="shared" si="80"/>
         <v>32251</v>
       </c>
       <c r="Y130" s="35">
-        <f>SUM(G120:J120)</f>
+        <f t="shared" si="81"/>
         <v>52535</v>
       </c>
       <c r="Z130" s="35">
-        <f>SUM(K120:N120)</f>
+        <f t="shared" si="82"/>
         <v>86035</v>
       </c>
       <c r="AA130" s="35">
-        <f t="shared" ref="AA130:AD135" si="64">Z130*1.2</f>
+        <f t="shared" ref="AA130:AD135" si="84">Z130*1.2</f>
         <v>103242</v>
       </c>
       <c r="AB130" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>123890.4</v>
       </c>
       <c r="AC130" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>148668.47999999998</v>
       </c>
       <c r="AD130" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>178402.17599999998</v>
       </c>
       <c r="AE130" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>214082.61119999996</v>
       </c>
     </row>
@@ -7265,35 +7266,35 @@
         <v>52700</v>
       </c>
       <c r="X131" s="35">
-        <f>SUM(C121:F121)</f>
+        <f t="shared" si="80"/>
         <v>52729</v>
       </c>
       <c r="Y131" s="35">
-        <f>SUM(G121:J121)</f>
+        <f t="shared" si="81"/>
         <v>82999</v>
       </c>
       <c r="Z131" s="35">
-        <f>SUM(K121:N121)</f>
+        <f t="shared" si="82"/>
         <v>121568</v>
       </c>
       <c r="AA131" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>145881.60000000001</v>
       </c>
       <c r="AB131" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>175057.92000000001</v>
       </c>
       <c r="AC131" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>210069.50400000002</v>
       </c>
       <c r="AD131" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>252083.40480000002</v>
       </c>
       <c r="AE131" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>302500.08575999999</v>
       </c>
     </row>
@@ -7326,35 +7327,35 @@
         <v>57771.428571428572</v>
       </c>
       <c r="X132" s="35">
-        <f>SUM(C122:F122)</f>
+        <f t="shared" si="80"/>
         <v>5714.2857142857147</v>
       </c>
       <c r="Y132" s="35">
-        <f>SUM(G122:J122)</f>
+        <f t="shared" si="81"/>
         <v>9057.1428571428569</v>
       </c>
       <c r="Z132" s="35">
-        <f>SUM(K122:N122)</f>
+        <f t="shared" si="82"/>
         <v>43000</v>
       </c>
       <c r="AA132" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>51600</v>
       </c>
       <c r="AB132" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>61920</v>
       </c>
       <c r="AC132" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>74304</v>
       </c>
       <c r="AD132" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>89164.800000000003</v>
       </c>
       <c r="AE132" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>106997.75999999999</v>
       </c>
     </row>
@@ -7386,35 +7387,35 @@
         <v>1000</v>
       </c>
       <c r="X133" s="35">
-        <f>SUM(C123:F123)</f>
+        <f t="shared" si="80"/>
         <v>2720.9999999999995</v>
       </c>
       <c r="Y133" s="35">
-        <f>SUM(G123:J123)</f>
+        <f t="shared" si="81"/>
         <v>8483</v>
       </c>
       <c r="Z133" s="35">
-        <f>SUM(K123:N123)</f>
+        <f t="shared" si="82"/>
         <v>9366</v>
       </c>
       <c r="AA133" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>11239.199999999999</v>
       </c>
       <c r="AB133" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>13487.039999999999</v>
       </c>
       <c r="AC133" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>16184.447999999999</v>
       </c>
       <c r="AD133" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>19421.337599999999</v>
       </c>
       <c r="AE133" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>23305.605119999997</v>
       </c>
     </row>
@@ -7448,35 +7449,35 @@
         <v>31600</v>
       </c>
       <c r="X134" s="35">
-        <f>SUM(C124:F124)</f>
+        <f t="shared" si="80"/>
         <v>27045</v>
       </c>
       <c r="Y134" s="35">
-        <f>SUM(G124:J124)</f>
+        <f t="shared" si="81"/>
         <v>37256</v>
       </c>
       <c r="Z134" s="35">
-        <f>SUM(K124:N124)</f>
+        <f t="shared" si="82"/>
         <v>78152</v>
       </c>
       <c r="AA134" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>93782.399999999994</v>
       </c>
       <c r="AB134" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>112538.87999999999</v>
       </c>
       <c r="AC134" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>135046.65599999999</v>
       </c>
       <c r="AD134" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>162055.98719999997</v>
       </c>
       <c r="AE134" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>194467.18463999996</v>
       </c>
     </row>
@@ -7510,35 +7511,35 @@
         <v>6000</v>
       </c>
       <c r="X135" s="35">
-        <f>SUM(C125:F125)</f>
+        <f t="shared" si="80"/>
         <v>4068</v>
       </c>
       <c r="Y135" s="35">
-        <f>SUM(G125:J125)</f>
+        <f t="shared" si="81"/>
         <v>14933</v>
       </c>
       <c r="Z135" s="35">
-        <f>SUM(K125:N125)</f>
+        <f t="shared" si="82"/>
         <v>39320</v>
       </c>
       <c r="AA135" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>47184</v>
       </c>
       <c r="AB135" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>56620.799999999996</v>
       </c>
       <c r="AC135" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>67944.959999999992</v>
       </c>
       <c r="AD135" s="35">
-        <f t="shared" si="64"/>
+        <f t="shared" si="84"/>
         <v>81533.95199999999</v>
       </c>
       <c r="AE135" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="83"/>
         <v>97840.742399999988</v>
       </c>
     </row>
@@ -7574,35 +7575,35 @@
         <v>248771.42857142858</v>
       </c>
       <c r="X136" s="35">
-        <f t="shared" ref="X136:AE136" si="65">SUM(X128:X135)</f>
+        <f t="shared" ref="X136:AE136" si="85">SUM(X128:X135)</f>
         <v>166930.28571428571</v>
       </c>
       <c r="Y136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>267815.14285714284</v>
       </c>
       <c r="Z136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>469899.56</v>
       </c>
       <c r="AA136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>563879.47199999995</v>
       </c>
       <c r="AB136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>676655.36639999994</v>
       </c>
       <c r="AC136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>811986.43967999995</v>
       </c>
       <c r="AD136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>974383.72761599999</v>
       </c>
       <c r="AE136" s="35">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>1169260.4731391999</v>
       </c>
     </row>
@@ -7648,19 +7649,19 @@
         <v>312689.60399999999</v>
       </c>
       <c r="AB137" s="35">
-        <f t="shared" ref="AB137:AE137" si="66">AB126</f>
+        <f t="shared" ref="AB137:AE137" si="86">AB126</f>
         <v>425465.49839999998</v>
       </c>
       <c r="AC137" s="35">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>560796.57167999994</v>
       </c>
       <c r="AD137" s="35">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>723193.85961599997</v>
       </c>
       <c r="AE137" s="35">
-        <f t="shared" si="66"/>
+        <f t="shared" si="86"/>
         <v>918070.60513919999</v>
       </c>
     </row>
@@ -7694,47 +7695,47 @@
         <v>0</v>
       </c>
       <c r="D139" s="36">
-        <f t="shared" ref="D139:N139" si="67">D114/D116</f>
+        <f t="shared" ref="D139:N139" si="87">D114/D116</f>
         <v>0.33000858624757717</v>
       </c>
       <c r="E139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.42915773339934837</v>
       </c>
       <c r="F139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.46358676165526252</v>
       </c>
       <c r="G139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.50392229488802531</v>
       </c>
       <c r="H139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.48505930604317277</v>
       </c>
       <c r="I139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.47582362435405334</v>
       </c>
       <c r="J139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.45417908034827592</v>
       </c>
       <c r="K139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.44513365526438081</v>
       </c>
       <c r="L139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.39569284132717064</v>
       </c>
       <c r="M139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.41134457878315134</v>
       </c>
       <c r="N139" s="36">
-        <f t="shared" si="67"/>
+        <f t="shared" si="87"/>
         <v>0.43722198864459422</v>
       </c>
       <c r="O139" s="34"/>
@@ -7749,31 +7750,31 @@
         <v>0.14070715576733486</v>
       </c>
       <c r="Y139" s="30">
-        <f t="shared" ref="Y139:AE139" si="68">Y137/Y136</f>
+        <f t="shared" ref="Y139:AE139" si="88">Y137/Y136</f>
         <v>0.46439921779735066</v>
       </c>
       <c r="Z139" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>0.45777802388238031</v>
       </c>
       <c r="AA139" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>0.55453269630641921</v>
       </c>
       <c r="AB139" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>0.62877724692201598</v>
       </c>
       <c r="AC139" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>0.69064770576834666</v>
       </c>
       <c r="AD139" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>0.74220642147362215</v>
       </c>
       <c r="AE139" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>0.78517201789468527</v>
       </c>
     </row>
@@ -7800,43 +7801,43 @@
         <v>182</v>
       </c>
       <c r="C141" s="35">
-        <f>C113</f>
+        <f t="shared" ref="C141:L141" si="89">C113</f>
         <v>16301.507142857143</v>
       </c>
       <c r="D141" s="35">
-        <f>D113</f>
+        <f t="shared" si="89"/>
         <v>18418.157142857141</v>
       </c>
       <c r="E141" s="35">
-        <f>E113</f>
+        <f t="shared" si="89"/>
         <v>19000.007142857143</v>
       </c>
       <c r="F141" s="35">
-        <f>F113</f>
+        <f t="shared" si="89"/>
         <v>21455.207142857143</v>
       </c>
       <c r="G141" s="35">
-        <f>G113</f>
+        <f t="shared" si="89"/>
         <v>23257.157142857144</v>
       </c>
       <c r="H141" s="35">
-        <f>H113</f>
+        <f t="shared" si="89"/>
         <v>27868.757142857143</v>
       </c>
       <c r="I141" s="35">
-        <f>I113</f>
+        <f t="shared" si="89"/>
         <v>33178.050000000003</v>
       </c>
       <c r="J141" s="35">
-        <f>J113</f>
+        <f t="shared" si="89"/>
         <v>38969.1</v>
       </c>
       <c r="K141" s="35">
-        <f>K113</f>
+        <f t="shared" si="89"/>
         <v>44543.700000000004</v>
       </c>
       <c r="L141" s="35">
-        <f>L113</f>
+        <f t="shared" si="89"/>
         <v>47511.600000000006</v>
       </c>
       <c r="M141" s="35"/>
@@ -7846,35 +7847,35 @@
       <c r="Q141" s="34"/>
       <c r="R141" s="34"/>
       <c r="X141" s="26">
-        <f>X126</f>
+        <f t="shared" ref="X141:AE141" si="90">X126</f>
         <v>23488.285714285714</v>
       </c>
       <c r="Y141" s="26">
-        <f>Y126</f>
+        <f t="shared" si="90"/>
         <v>124373.14285714286</v>
       </c>
       <c r="Z141" s="26">
-        <f>Z126</f>
+        <f t="shared" si="90"/>
         <v>215109.69200000001</v>
       </c>
       <c r="AA141" s="26">
-        <f>AA126</f>
+        <f t="shared" si="90"/>
         <v>312689.60399999999</v>
       </c>
       <c r="AB141" s="26">
-        <f>AB126</f>
+        <f t="shared" si="90"/>
         <v>425465.49839999998</v>
       </c>
       <c r="AC141" s="26">
-        <f>AC126</f>
+        <f t="shared" si="90"/>
         <v>560796.57167999994</v>
       </c>
       <c r="AD141" s="26">
-        <f>AD126</f>
+        <f t="shared" si="90"/>
         <v>723193.85961599997</v>
       </c>
       <c r="AE141" s="26">
-        <f>AE126</f>
+        <f t="shared" si="90"/>
         <v>918070.60513919999</v>
       </c>
     </row>
@@ -7887,39 +7888,39 @@
         <v>0</v>
       </c>
       <c r="D142" s="35">
-        <f t="shared" ref="D142:L142" si="69">D114</f>
+        <f t="shared" ref="D142:L142" si="91">D114</f>
         <v>13507</v>
       </c>
       <c r="E142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>18120</v>
       </c>
       <c r="F142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>22103</v>
       </c>
       <c r="G142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>26044</v>
       </c>
       <c r="H142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>30040</v>
       </c>
       <c r="I142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>35082</v>
       </c>
       <c r="J142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>39331</v>
       </c>
       <c r="K142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>44062</v>
       </c>
       <c r="L142" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>47000</v>
       </c>
       <c r="M142" s="35"/>
@@ -7951,43 +7952,43 @@
         <v>193</v>
       </c>
       <c r="C143" s="36" t="e">
-        <f t="shared" ref="C143" si="70">1-ABS((C141-C142)/C142)</f>
+        <f t="shared" ref="C143" si="92">1-ABS((C141-C142)/C142)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D143" s="36">
-        <f t="shared" ref="D143" si="71">1-ABS((D141-D142)/D142)</f>
+        <f t="shared" ref="D143" si="93">1-ABS((D141-D142)/D142)</f>
         <v>0.63639911580238828</v>
       </c>
       <c r="E143" s="36">
-        <f t="shared" ref="E143" si="72">1-ABS((E141-E142)/E142)</f>
+        <f t="shared" ref="E143" si="94">1-ABS((E141-E142)/E142)</f>
         <v>0.9514344843897824</v>
       </c>
       <c r="F143" s="36">
-        <f t="shared" ref="F143" si="73">1-ABS((F141-F142)/F142)</f>
+        <f t="shared" ref="F143" si="95">1-ABS((F141-F142)/F142)</f>
         <v>0.97069208446170852</v>
       </c>
       <c r="G143" s="36">
-        <f t="shared" ref="G143" si="74">1-ABS((G141-G142)/G142)</f>
+        <f t="shared" ref="G143" si="96">1-ABS((G141-G142)/G142)</f>
         <v>0.89299482194966762</v>
       </c>
       <c r="H143" s="36">
-        <f t="shared" ref="H143" si="75">1-ABS((H141-H142)/H142)</f>
+        <f t="shared" ref="H143" si="97">1-ABS((H141-H142)/H142)</f>
         <v>0.92772160928286096</v>
       </c>
       <c r="I143" s="36">
-        <f t="shared" ref="I143" si="76">1-ABS((I141-I142)/I142)</f>
+        <f t="shared" ref="I143" si="98">1-ABS((I141-I142)/I142)</f>
         <v>0.94572857875833771</v>
       </c>
       <c r="J143" s="36">
-        <f t="shared" ref="J143" si="77">1-ABS((J141-J142)/J142)</f>
+        <f t="shared" ref="J143" si="99">1-ABS((J141-J142)/J142)</f>
         <v>0.99079860669700737</v>
       </c>
       <c r="K143" s="36">
-        <f t="shared" ref="K143" si="78">1-ABS((K141-K142)/K142)</f>
+        <f t="shared" ref="K143" si="100">1-ABS((K141-K142)/K142)</f>
         <v>0.9890676773637147</v>
       </c>
       <c r="L143" s="36">
-        <f t="shared" ref="L143" si="79">1-ABS((L141-L142)/L142)</f>
+        <f t="shared" ref="L143" si="101">1-ABS((L141-L142)/L142)</f>
         <v>0.98911489361702121</v>
       </c>
       <c r="M143" s="36"/>
@@ -7997,15 +7998,15 @@
       <c r="Q143" s="34"/>
       <c r="R143" s="34"/>
       <c r="X143" s="36">
-        <f t="shared" ref="X143:Z143" si="80">1-ABS((X141-X142)/X142)</f>
+        <f t="shared" ref="X143:Z143" si="102">1-ABS((X141-X142)/X142)</f>
         <v>0.38554685851228965</v>
       </c>
       <c r="Y143" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.95307281283970402</v>
       </c>
       <c r="Z143" s="36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="102"/>
         <v>0.94792336962369528</v>
       </c>
       <c r="AA143" s="36"/>
